--- a/NEW HR/DONE/MAULLON, JAENA.xlsx
+++ b/NEW HR/DONE/MAULLON, JAENA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="85">
   <si>
     <t>PERIOD</t>
   </si>
@@ -289,6 +289,9 @@
   </si>
   <si>
     <t>3/8,9/2023</t>
+  </si>
+  <si>
+    <t>5/11,18,19,24/2023</t>
   </si>
 </sst>
 </file>
@@ -673,14 +676,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -690,9 +696,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1223,7 +1226,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1266,7 +1269,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1330,7 +1333,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1390,7 +1393,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1456,7 +1459,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1519,7 +1522,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1617,7 +1620,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1676,7 +1679,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1741,7 +1744,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1784,7 +1787,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1859,7 +1862,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2045,7 +2048,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2111,7 +2114,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2169,7 +2172,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2235,7 +2238,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2291,7 +2294,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2366,7 +2369,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2409,7 +2412,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2475,7 +2478,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2531,7 +2534,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3009,7 +3012,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A72" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="F72" sqref="F72"/>
+      <selection pane="bottomLeft" activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3039,16 +3042,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51" t="s">
+      <c r="F2" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="51"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3059,16 +3062,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54">
+      <c r="F3" s="55">
         <v>42552</v>
       </c>
-      <c r="G3" s="52"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3081,16 +3084,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3116,18 +3119,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3174,7 +3177,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>37.459000000000003</v>
+        <v>34.709000000000003</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4712,7 +4715,9 @@
         <v>45017</v>
       </c>
       <c r="B83" s="20"/>
-      <c r="C83" s="13"/>
+      <c r="C83" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D83" s="39"/>
       <c r="E83" s="9"/>
       <c r="F83" s="20"/>
@@ -4726,9 +4731,13 @@
       <c r="A84" s="40">
         <v>45047</v>
       </c>
-      <c r="B84" s="20"/>
+      <c r="B84" s="20" t="s">
+        <v>80</v>
+      </c>
       <c r="C84" s="13"/>
-      <c r="D84" s="39"/>
+      <c r="D84" s="39">
+        <v>4</v>
+      </c>
       <c r="E84" s="9"/>
       <c r="F84" s="20"/>
       <c r="G84" s="13" t="str">
@@ -4738,7 +4747,9 @@
       <c r="H84" s="39"/>
       <c r="I84" s="9"/>
       <c r="J84" s="11"/>
-      <c r="K84" s="20"/>
+      <c r="K84" s="20" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
@@ -5608,17 +5619,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5686,16 +5697,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51" t="s">
+      <c r="F2" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="51"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -5706,16 +5717,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54">
+      <c r="F3" s="55">
         <v>42552</v>
       </c>
-      <c r="G3" s="52"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -5728,16 +5739,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -5763,18 +5774,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">

--- a/NEW HR/DONE/MAULLON, JAENA.xlsx
+++ b/NEW HR/DONE/MAULLON, JAENA.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="87">
   <si>
     <t>PERIOD</t>
   </si>
@@ -292,6 +292,12 @@
   </si>
   <si>
     <t>5/11,18,19,24/2023</t>
+  </si>
+  <si>
+    <t>SL(8-0-0)</t>
+  </si>
+  <si>
+    <t>05/25-26,29-31,06/1-2,5/2023</t>
   </si>
 </sst>
 </file>
@@ -3009,10 +3015,10 @@
   </sheetPr>
   <dimension ref="A2:K133"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A72" activePane="bottomLeft"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A73" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="B85" sqref="B85"/>
+      <selection pane="bottomLeft" activeCell="K85" sqref="K85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3177,7 +3183,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>34.709000000000003</v>
+        <v>35.959000000000003</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3187,7 +3193,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>64.959000000000003</v>
+        <v>61.959000000000003</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3325,7 +3331,7 @@
       <c r="D16" s="43"/>
       <c r="E16" s="9"/>
       <c r="F16" s="15"/>
-      <c r="G16" s="42">
+      <c r="G16" s="13">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
@@ -4687,7 +4693,10 @@
       <c r="D81" s="39"/>
       <c r="E81" s="9"/>
       <c r="F81" s="20"/>
-      <c r="G81" s="13"/>
+      <c r="G81" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H81" s="39"/>
       <c r="I81" s="9"/>
       <c r="J81" s="11"/>
@@ -4704,7 +4713,10 @@
       <c r="D82" s="39"/>
       <c r="E82" s="9"/>
       <c r="F82" s="20"/>
-      <c r="G82" s="13"/>
+      <c r="G82" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H82" s="39"/>
       <c r="I82" s="9"/>
       <c r="J82" s="11"/>
@@ -4721,7 +4733,10 @@
       <c r="D83" s="39"/>
       <c r="E83" s="9"/>
       <c r="F83" s="20"/>
-      <c r="G83" s="13"/>
+      <c r="G83" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H83" s="39"/>
       <c r="I83" s="9"/>
       <c r="J83" s="11"/>
@@ -4734,15 +4749,17 @@
       <c r="B84" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="C84" s="13"/>
+      <c r="C84" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D84" s="39">
         <v>4</v>
       </c>
       <c r="E84" s="9"/>
       <c r="F84" s="20"/>
-      <c r="G84" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G84" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H84" s="39"/>
       <c r="I84" s="9"/>
@@ -4755,7 +4772,9 @@
       <c r="A85" s="40">
         <v>45078</v>
       </c>
-      <c r="B85" s="20"/>
+      <c r="B85" s="20" t="s">
+        <v>85</v>
+      </c>
       <c r="C85" s="13"/>
       <c r="D85" s="39"/>
       <c r="E85" s="9"/>
@@ -4764,10 +4783,14 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H85" s="39"/>
+      <c r="H85" s="39">
+        <v>8</v>
+      </c>
       <c r="I85" s="9"/>
       <c r="J85" s="11"/>
-      <c r="K85" s="20"/>
+      <c r="K85" s="20" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
@@ -5664,10 +5687,10 @@
   </sheetPr>
   <dimension ref="A2:K79"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A13" activePane="bottomLeft"/>
-      <selection activeCell="K86" sqref="K86"/>
-      <selection pane="bottomLeft" activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A19" activePane="bottomLeft"/>
+      <selection activeCell="I9" sqref="I9"/>
+      <selection pane="bottomLeft" activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/NEW HR/DONE/MAULLON, JAENA.xlsx
+++ b/NEW HR/DONE/MAULLON, JAENA.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CDA8AD1-89BA-4417-BE08-CFA48B1E850D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -27,7 +28,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="88">
   <si>
     <t>PERIOD</t>
   </si>
@@ -298,12 +299,15 @@
   </si>
   <si>
     <t>05/25-26,29-31,06/1-2,5/2023</t>
+  </si>
+  <si>
+    <t>6/9,16,20,22/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -682,17 +686,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -702,6 +703,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1232,7 +1236,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1275,7 +1279,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1339,7 +1343,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1399,7 +1403,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1465,7 +1469,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1528,7 +1532,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1626,7 +1630,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1685,7 +1689,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1750,7 +1754,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1793,7 +1797,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1868,7 +1872,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2054,7 +2058,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2120,7 +2124,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2178,7 +2182,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2244,7 +2248,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2300,7 +2304,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2375,7 +2379,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2418,7 +2422,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2484,7 +2488,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2540,7 +2544,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2619,7 +2623,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2636,25 +2640,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K133" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table13" displayName="Table13" ref="A8:K133" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2666,25 +2670,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K79" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K79" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2991,7 +2995,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3001,7 +3005,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3009,34 +3013,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K133"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A73" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3696" topLeftCell="A73" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
       <selection pane="bottomLeft" activeCell="K85" sqref="K85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3048,18 +3052,18 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54" t="s">
+      <c r="F2" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="54"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3068,18 +3072,18 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55">
+      <c r="F3" s="54">
         <v>42552</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3090,18 +3094,18 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3109,7 +3113,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3122,24 +3126,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3174,7 +3178,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3198,7 +3202,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>45</v>
       </c>
@@ -3220,7 +3224,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -3240,7 +3244,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -3260,7 +3264,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -3280,7 +3284,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="49"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -3300,7 +3304,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -3320,7 +3324,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>43252</v>
       </c>
@@ -3340,7 +3344,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>43282</v>
       </c>
@@ -3360,7 +3364,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>43313</v>
       </c>
@@ -3380,7 +3384,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>43344</v>
       </c>
@@ -3406,7 +3410,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>43374</v>
       </c>
@@ -3426,7 +3430,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>43405</v>
       </c>
@@ -3446,7 +3450,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>43435</v>
       </c>
@@ -3472,7 +3476,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="48" t="s">
         <v>56</v>
       </c>
@@ -3490,7 +3494,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>43466</v>
       </c>
@@ -3510,7 +3514,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>43497</v>
       </c>
@@ -3530,7 +3534,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>43525</v>
       </c>
@@ -3550,7 +3554,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>43556</v>
       </c>
@@ -3570,7 +3574,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>43586</v>
       </c>
@@ -3590,7 +3594,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>43617</v>
       </c>
@@ -3610,7 +3614,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>43647</v>
       </c>
@@ -3630,7 +3634,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>43678</v>
       </c>
@@ -3650,7 +3654,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>43709</v>
       </c>
@@ -3670,7 +3674,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>43739</v>
       </c>
@@ -3690,7 +3694,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>43770</v>
       </c>
@@ -3710,7 +3714,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>43800</v>
       </c>
@@ -3734,7 +3738,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="48" t="s">
         <v>59</v>
       </c>
@@ -3752,7 +3756,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>43831</v>
       </c>
@@ -3772,7 +3776,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>43862</v>
       </c>
@@ -3798,7 +3802,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>43891</v>
       </c>
@@ -3818,7 +3822,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>43922</v>
       </c>
@@ -3838,7 +3842,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>43952</v>
       </c>
@@ -3858,7 +3862,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>43983</v>
       </c>
@@ -3878,7 +3882,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>44025</v>
       </c>
@@ -3898,7 +3902,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>44763</v>
       </c>
@@ -3918,7 +3922,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>44044</v>
       </c>
@@ -3938,7 +3942,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="49"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>44075</v>
       </c>
@@ -3964,7 +3968,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>44105</v>
       </c>
@@ -3984,7 +3988,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>44136</v>
       </c>
@@ -4004,7 +4008,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <v>44166</v>
       </c>
@@ -4024,7 +4028,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="48" t="s">
         <v>65</v>
       </c>
@@ -4042,7 +4046,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>44197</v>
       </c>
@@ -4062,7 +4066,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>44228</v>
       </c>
@@ -4082,7 +4086,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <v>44256</v>
       </c>
@@ -4102,7 +4106,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>44287</v>
       </c>
@@ -4122,7 +4126,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <v>44317</v>
       </c>
@@ -4142,7 +4146,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <v>44348</v>
       </c>
@@ -4162,7 +4166,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>44378</v>
       </c>
@@ -4182,7 +4186,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>44409</v>
       </c>
@@ -4202,7 +4206,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>44440</v>
       </c>
@@ -4222,7 +4226,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>44470</v>
       </c>
@@ -4242,7 +4246,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>44501</v>
       </c>
@@ -4262,7 +4266,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
         <v>44531</v>
       </c>
@@ -4286,7 +4290,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="48" t="s">
         <v>66</v>
       </c>
@@ -4304,7 +4308,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>44562</v>
       </c>
@@ -4324,7 +4328,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <v>44593</v>
       </c>
@@ -4344,7 +4348,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <v>44621</v>
       </c>
@@ -4370,7 +4374,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <v>44652</v>
       </c>
@@ -4396,7 +4400,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>44682</v>
       </c>
@@ -4416,7 +4420,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <v>44713</v>
       </c>
@@ -4436,7 +4440,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <v>44743</v>
       </c>
@@ -4456,7 +4460,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <v>44774</v>
       </c>
@@ -4482,7 +4486,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>44805</v>
       </c>
@@ -4502,7 +4506,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <v>44835</v>
       </c>
@@ -4528,7 +4532,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40"/>
       <c r="B74" s="20" t="s">
         <v>52</v>
@@ -4550,7 +4554,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
         <v>44866</v>
       </c>
@@ -4570,7 +4574,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
         <v>44896</v>
       </c>
@@ -4594,7 +4598,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40"/>
       <c r="B77" s="20" t="s">
         <v>55</v>
@@ -4616,7 +4620,7 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="48" t="s">
         <v>76</v>
       </c>
@@ -4634,7 +4638,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <v>44927</v>
       </c>
@@ -4660,7 +4664,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40"/>
       <c r="B80" s="20" t="s">
         <v>52</v>
@@ -4682,7 +4686,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
         <v>44958</v>
       </c>
@@ -4702,7 +4706,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="49"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
         <v>44986</v>
       </c>
@@ -4722,7 +4726,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
         <v>45017</v>
       </c>
@@ -4742,7 +4746,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
         <v>45047</v>
       </c>
@@ -4768,7 +4772,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
         <v>45078</v>
       </c>
@@ -4792,7 +4796,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
         <v>45108</v>
       </c>
@@ -4810,7 +4814,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
         <v>45139</v>
       </c>
@@ -4828,7 +4832,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
         <v>45170</v>
       </c>
@@ -4846,7 +4850,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
         <v>45200</v>
       </c>
@@ -4864,7 +4868,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
         <v>45231</v>
       </c>
@@ -4882,7 +4886,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
         <v>45261</v>
       </c>
@@ -4900,7 +4904,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
         <v>45292</v>
       </c>
@@ -4918,7 +4922,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
         <v>45323</v>
       </c>
@@ -4936,7 +4940,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
         <v>45352</v>
       </c>
@@ -4954,7 +4958,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
         <v>45383</v>
       </c>
@@ -4972,7 +4976,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
         <v>45413</v>
       </c>
@@ -4990,7 +4994,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
         <v>45444</v>
       </c>
@@ -5008,7 +5012,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
         <v>45474</v>
       </c>
@@ -5026,7 +5030,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40">
         <v>45505</v>
       </c>
@@ -5044,7 +5048,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
         <v>45536</v>
       </c>
@@ -5062,7 +5066,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
         <v>45566</v>
       </c>
@@ -5080,7 +5084,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
         <v>45597</v>
       </c>
@@ -5098,7 +5102,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
         <v>45627</v>
       </c>
@@ -5116,7 +5120,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
         <v>45658</v>
       </c>
@@ -5134,7 +5138,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40">
         <v>45689</v>
       </c>
@@ -5152,7 +5156,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
         <v>45717</v>
       </c>
@@ -5170,7 +5174,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
         <v>45748</v>
       </c>
@@ -5188,7 +5192,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
         <v>45778</v>
       </c>
@@ -5206,7 +5210,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40">
         <v>45809</v>
       </c>
@@ -5224,7 +5228,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40">
         <v>45839</v>
       </c>
@@ -5242,7 +5246,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
         <v>45870</v>
       </c>
@@ -5260,7 +5264,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
         <v>45901</v>
       </c>
@@ -5278,7 +5282,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40">
         <v>45931</v>
       </c>
@@ -5296,7 +5300,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40">
         <v>45962</v>
       </c>
@@ -5314,7 +5318,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
         <v>45992</v>
       </c>
@@ -5332,7 +5336,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40">
         <v>46023</v>
       </c>
@@ -5350,7 +5354,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
         <v>46054</v>
       </c>
@@ -5368,7 +5372,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40">
         <v>46082</v>
       </c>
@@ -5386,7 +5390,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
         <v>46113</v>
       </c>
@@ -5404,7 +5408,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40">
         <v>46143</v>
       </c>
@@ -5422,7 +5426,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40">
         <v>46174</v>
       </c>
@@ -5440,7 +5444,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40">
         <v>46204</v>
       </c>
@@ -5458,7 +5462,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40">
         <v>46235</v>
       </c>
@@ -5476,7 +5480,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40">
         <v>46266</v>
       </c>
@@ -5494,7 +5498,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40">
         <v>46296</v>
       </c>
@@ -5512,7 +5516,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5528,7 +5532,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5544,7 +5548,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5560,7 +5564,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5576,7 +5580,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5592,7 +5596,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5608,7 +5612,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5624,7 +5628,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="41"/>
       <c r="B133" s="15"/>
       <c r="C133" s="42"/>
@@ -5642,23 +5646,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5681,34 +5685,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A19" activePane="bottomLeft"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3696" topLeftCell="A22" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="F30" sqref="F30"/>
+      <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -5720,18 +5724,18 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54" t="s">
+      <c r="F2" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="54"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -5740,18 +5744,18 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55">
+      <c r="F3" s="54">
         <v>42552</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -5762,18 +5766,18 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -5781,7 +5785,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -5794,24 +5798,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -5846,7 +5850,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -5855,7 +5859,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>6.3410000000000011</v>
+        <v>2.3410000000000011</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -5870,7 +5874,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>45</v>
       </c>
@@ -5892,7 +5896,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43132</v>
       </c>
@@ -5916,7 +5920,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>43160</v>
       </c>
@@ -5940,7 +5944,7 @@
         <v>43175</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>43313</v>
       </c>
@@ -5964,7 +5968,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40"/>
       <c r="B14" s="20" t="s">
         <v>51</v>
@@ -5984,7 +5988,7 @@
         <v>43340</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>43435</v>
       </c>
@@ -6008,7 +6012,7 @@
         <v>43454</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="48" t="s">
         <v>56</v>
       </c>
@@ -6026,7 +6030,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>43678</v>
       </c>
@@ -6048,7 +6052,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>43739</v>
       </c>
@@ -6072,7 +6076,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="48" t="s">
         <v>59</v>
       </c>
@@ -6090,7 +6094,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>43831</v>
       </c>
@@ -6112,7 +6116,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>43862</v>
       </c>
@@ -6132,7 +6136,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>44044</v>
       </c>
@@ -6154,7 +6158,7 @@
         <v>44071</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="48" t="s">
         <v>66</v>
       </c>
@@ -6172,7 +6176,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>44835</v>
       </c>
@@ -6196,7 +6200,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>44896</v>
       </c>
@@ -6220,7 +6224,7 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="48" t="s">
         <v>76</v>
       </c>
@@ -6238,7 +6242,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>44927</v>
       </c>
@@ -6262,7 +6266,7 @@
         <v>44588</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>44958</v>
       </c>
@@ -6286,7 +6290,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40"/>
       <c r="B29" s="20" t="s">
         <v>80</v>
@@ -6308,7 +6312,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>44986</v>
       </c>
@@ -6332,11 +6336,15 @@
         <v>83</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40"/>
-      <c r="B31" s="20"/>
+      <c r="B31" s="20" t="s">
+        <v>80</v>
+      </c>
       <c r="C31" s="13"/>
-      <c r="D31" s="39"/>
+      <c r="D31" s="39">
+        <v>4</v>
+      </c>
       <c r="E31" s="9"/>
       <c r="F31" s="20"/>
       <c r="G31" s="13" t="str">
@@ -6346,9 +6354,11 @@
       <c r="H31" s="39"/>
       <c r="I31" s="9"/>
       <c r="J31" s="11"/>
-      <c r="K31" s="20"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K31" s="20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40"/>
       <c r="B32" s="20"/>
       <c r="C32" s="13"/>
@@ -6364,7 +6374,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40"/>
       <c r="B33" s="20"/>
       <c r="C33" s="13"/>
@@ -6380,7 +6390,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40"/>
       <c r="B34" s="20"/>
       <c r="C34" s="13"/>
@@ -6396,7 +6406,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40"/>
       <c r="B35" s="20"/>
       <c r="C35" s="13"/>
@@ -6412,7 +6422,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40"/>
       <c r="B36" s="20"/>
       <c r="C36" s="13"/>
@@ -6428,7 +6438,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40"/>
       <c r="B37" s="20"/>
       <c r="C37" s="13"/>
@@ -6444,7 +6454,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40"/>
       <c r="B38" s="20"/>
       <c r="C38" s="13"/>
@@ -6460,7 +6470,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40"/>
       <c r="B39" s="20"/>
       <c r="C39" s="13"/>
@@ -6476,7 +6486,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40"/>
       <c r="B40" s="20"/>
       <c r="C40" s="13"/>
@@ -6492,7 +6502,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40"/>
       <c r="B41" s="20"/>
       <c r="C41" s="13"/>
@@ -6508,7 +6518,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40"/>
       <c r="B42" s="20"/>
       <c r="C42" s="13"/>
@@ -6524,7 +6534,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40"/>
       <c r="B43" s="20"/>
       <c r="C43" s="13"/>
@@ -6540,7 +6550,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40"/>
       <c r="B44" s="20"/>
       <c r="C44" s="13"/>
@@ -6556,7 +6566,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40"/>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
@@ -6572,7 +6582,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40"/>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
@@ -6588,7 +6598,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40"/>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
@@ -6604,7 +6614,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40"/>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -6620,7 +6630,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40"/>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -6636,7 +6646,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40"/>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -6652,7 +6662,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40"/>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -6668,7 +6678,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40"/>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -6684,7 +6694,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40"/>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -6700,7 +6710,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40"/>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -6716,7 +6726,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40"/>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -6732,7 +6742,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -6748,7 +6758,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40"/>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -6764,7 +6774,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40"/>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -6780,7 +6790,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40"/>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -6796,7 +6806,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -6812,7 +6822,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -6828,7 +6838,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -6844,7 +6854,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -6860,7 +6870,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -6876,7 +6886,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -6892,7 +6902,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -6908,7 +6918,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -6924,7 +6934,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -6940,7 +6950,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -6956,7 +6966,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -6972,7 +6982,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -6988,7 +6998,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -7004,7 +7014,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -7020,7 +7030,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -7036,7 +7046,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -7052,7 +7062,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40"/>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -7068,7 +7078,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40"/>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -7084,7 +7094,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40"/>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -7100,7 +7110,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="41"/>
       <c r="B79" s="15"/>
       <c r="C79" s="42"/>
@@ -7131,10 +7141,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7157,28 +7167,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -7191,7 +7201,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -7220,7 +7230,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>17.341000000000001</v>
       </c>
@@ -7244,17 +7254,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -7275,7 +7285,7 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -7302,7 +7312,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -7328,7 +7338,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -7354,7 +7364,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -7380,7 +7390,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -7406,7 +7416,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -7432,7 +7442,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -7458,7 +7468,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -7484,7 +7494,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -7504,7 +7514,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -7524,7 +7534,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -7544,7 +7554,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -7565,7 +7575,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -7586,7 +7596,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -7607,7 +7617,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -7628,7 +7638,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -7649,7 +7659,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -7670,7 +7680,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -7691,7 +7701,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -7712,7 +7722,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -7733,7 +7743,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -7754,7 +7764,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -7775,7 +7785,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -7796,7 +7806,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -7817,7 +7827,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -7838,7 +7848,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -7859,7 +7869,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -7880,7 +7890,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -7901,7 +7911,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -7922,7 +7932,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -7943,7 +7953,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -7964,7 +7974,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -7973,7 +7983,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -7982,7 +7992,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -7991,7 +8001,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -8000,7 +8010,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -8009,7 +8019,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -8018,7 +8028,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -8027,7 +8037,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -8036,7 +8046,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -8045,7 +8055,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -8054,7 +8064,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -8063,7 +8073,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -8072,7 +8082,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -8081,7 +8091,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -8090,7 +8100,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -8099,7 +8109,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -8108,7 +8118,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -8117,7 +8127,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -8126,7 +8136,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -8135,7 +8145,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -8144,7 +8154,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -8153,7 +8163,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -8162,7 +8172,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -8171,7 +8181,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -8180,7 +8190,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -8189,7 +8199,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -8198,7 +8208,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -8207,7 +8217,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -8216,7 +8226,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -8225,7 +8235,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/NEW HR/DONE/MAULLON, JAENA.xlsx
+++ b/NEW HR/DONE/MAULLON, JAENA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CDA8AD1-89BA-4417-BE08-CFA48B1E850D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B82DA3E3-9D83-4C97-9826-4F20784C6D69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="89">
   <si>
     <t>PERIOD</t>
   </si>
@@ -302,6 +302,9 @@
   </si>
   <si>
     <t>6/9,16,20,22/2023</t>
+  </si>
+  <si>
+    <t>7/3,6,10/2023</t>
   </si>
 </sst>
 </file>
@@ -3020,9 +3023,9 @@
   <dimension ref="A2:K133"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A73" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A79" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="K85" sqref="K85"/>
+      <selection pane="bottomLeft" activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3187,7 +3190,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>35.959000000000003</v>
+        <v>34.209000000000003</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3197,7 +3200,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>61.959000000000003</v>
+        <v>63.209000000000003</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4779,13 +4782,15 @@
       <c r="B85" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="C85" s="13"/>
+      <c r="C85" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D85" s="39"/>
       <c r="E85" s="9"/>
       <c r="F85" s="20"/>
-      <c r="G85" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G85" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H85" s="39">
         <v>8</v>
@@ -4800,9 +4805,13 @@
       <c r="A86" s="40">
         <v>45108</v>
       </c>
-      <c r="B86" s="20"/>
+      <c r="B86" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="C86" s="13"/>
-      <c r="D86" s="39"/>
+      <c r="D86" s="39">
+        <v>3</v>
+      </c>
       <c r="E86" s="9"/>
       <c r="F86" s="20"/>
       <c r="G86" s="13" t="str">
@@ -4812,7 +4821,9 @@
       <c r="H86" s="39"/>
       <c r="I86" s="9"/>
       <c r="J86" s="11"/>
-      <c r="K86" s="20"/>
+      <c r="K86" s="20" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
@@ -5694,7 +5705,7 @@
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3696" topLeftCell="A22" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
+      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6359,8 +6370,12 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="40"/>
-      <c r="B32" s="20"/>
+      <c r="A32" s="40">
+        <v>45107</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="C32" s="13"/>
       <c r="D32" s="39"/>
       <c r="E32" s="9"/>

--- a/NEW HR/DONE/MAULLON, JAENA.xlsx
+++ b/NEW HR/DONE/MAULLON, JAENA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B82DA3E3-9D83-4C97-9826-4F20784C6D69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -28,7 +27,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="91">
   <si>
     <t>PERIOD</t>
   </si>
@@ -305,12 +304,18 @@
   </si>
   <si>
     <t>7/3,6,10/2023</t>
+  </si>
+  <si>
+    <t>SL(3-0-0)</t>
+  </si>
+  <si>
+    <t>8/16-18/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1239,7 +1244,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1282,7 +1287,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1346,7 +1351,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1406,7 +1411,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1472,7 +1477,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1535,7 +1540,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1633,7 +1638,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1692,7 +1697,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1757,7 +1762,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1800,7 +1805,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1875,7 +1880,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2061,7 +2066,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2127,7 +2132,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2185,7 +2190,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2251,7 +2256,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2307,7 +2312,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2382,7 +2387,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2425,7 +2430,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2491,7 +2496,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2547,7 +2552,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2626,7 +2631,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2643,25 +2648,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table13" displayName="Table13" ref="A8:K133" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K133" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2673,25 +2678,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K79" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K79" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2998,7 +3003,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3008,7 +3013,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3016,34 +3021,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K133"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A79" activePane="bottomLeft"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A79" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="B87" sqref="B87"/>
+      <selection pane="bottomLeft" activeCell="K88" sqref="K88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3066,7 +3071,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3086,7 +3091,7 @@
       <c r="J3" s="55"/>
       <c r="K3" s="56"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3108,7 +3113,7 @@
       <c r="J4" s="52"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3116,7 +3121,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3129,7 +3134,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="57" t="s">
@@ -3146,7 +3151,7 @@
       <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3181,7 +3186,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3190,7 +3195,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>34.209000000000003</v>
+        <v>37.959000000000003</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3200,12 +3205,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>63.209000000000003</v>
+        <v>65.959000000000003</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>45</v>
       </c>
@@ -3227,7 +3232,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -3247,7 +3252,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -3267,7 +3272,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -3287,7 +3292,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="49"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -3307,7 +3312,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -3327,7 +3332,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>43252</v>
       </c>
@@ -3347,7 +3352,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>43282</v>
       </c>
@@ -3367,7 +3372,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>43313</v>
       </c>
@@ -3387,7 +3392,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>43344</v>
       </c>
@@ -3413,7 +3418,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>43374</v>
       </c>
@@ -3433,7 +3438,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>43405</v>
       </c>
@@ -3453,7 +3458,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>43435</v>
       </c>
@@ -3479,7 +3484,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="48" t="s">
         <v>56</v>
       </c>
@@ -3497,7 +3502,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>43466</v>
       </c>
@@ -3517,7 +3522,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>43497</v>
       </c>
@@ -3537,7 +3542,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>43525</v>
       </c>
@@ -3557,7 +3562,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>43556</v>
       </c>
@@ -3577,7 +3582,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>43586</v>
       </c>
@@ -3597,7 +3602,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>43617</v>
       </c>
@@ -3617,7 +3622,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>43647</v>
       </c>
@@ -3637,7 +3642,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>43678</v>
       </c>
@@ -3657,7 +3662,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>43709</v>
       </c>
@@ -3677,7 +3682,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>43739</v>
       </c>
@@ -3697,7 +3702,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>43770</v>
       </c>
@@ -3717,7 +3722,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>43800</v>
       </c>
@@ -3741,7 +3746,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="48" t="s">
         <v>59</v>
       </c>
@@ -3759,7 +3764,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>43831</v>
       </c>
@@ -3779,7 +3784,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>43862</v>
       </c>
@@ -3805,7 +3810,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>43891</v>
       </c>
@@ -3825,7 +3830,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>43922</v>
       </c>
@@ -3845,7 +3850,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>43952</v>
       </c>
@@ -3865,7 +3870,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>43983</v>
       </c>
@@ -3885,7 +3890,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>44025</v>
       </c>
@@ -3905,7 +3910,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>44763</v>
       </c>
@@ -3925,7 +3930,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>44044</v>
       </c>
@@ -3945,7 +3950,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="49"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>44075</v>
       </c>
@@ -3971,7 +3976,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>44105</v>
       </c>
@@ -3991,7 +3996,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>44136</v>
       </c>
@@ -4011,7 +4016,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>44166</v>
       </c>
@@ -4031,7 +4036,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="48" t="s">
         <v>65</v>
       </c>
@@ -4049,7 +4054,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>44197</v>
       </c>
@@ -4069,7 +4074,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>44228</v>
       </c>
@@ -4089,7 +4094,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>44256</v>
       </c>
@@ -4109,7 +4114,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>44287</v>
       </c>
@@ -4129,7 +4134,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>44317</v>
       </c>
@@ -4149,7 +4154,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>44348</v>
       </c>
@@ -4169,7 +4174,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>44378</v>
       </c>
@@ -4189,7 +4194,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>44409</v>
       </c>
@@ -4209,7 +4214,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>44440</v>
       </c>
@@ -4229,7 +4234,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>44470</v>
       </c>
@@ -4249,7 +4254,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>44501</v>
       </c>
@@ -4269,7 +4274,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>44531</v>
       </c>
@@ -4293,7 +4298,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="48" t="s">
         <v>66</v>
       </c>
@@ -4311,7 +4316,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>44562</v>
       </c>
@@ -4331,7 +4336,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>44593</v>
       </c>
@@ -4351,7 +4356,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>44621</v>
       </c>
@@ -4377,7 +4382,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>44652</v>
       </c>
@@ -4403,7 +4408,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>44682</v>
       </c>
@@ -4423,7 +4428,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>44713</v>
       </c>
@@ -4443,7 +4448,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>44743</v>
       </c>
@@ -4463,7 +4468,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>44774</v>
       </c>
@@ -4489,7 +4494,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>44805</v>
       </c>
@@ -4509,7 +4514,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>44835</v>
       </c>
@@ -4535,7 +4540,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40"/>
       <c r="B74" s="20" t="s">
         <v>52</v>
@@ -4557,7 +4562,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>44866</v>
       </c>
@@ -4577,7 +4582,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>44896</v>
       </c>
@@ -4601,7 +4606,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
       <c r="B77" s="20" t="s">
         <v>55</v>
@@ -4623,7 +4628,7 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="48" t="s">
         <v>76</v>
       </c>
@@ -4641,7 +4646,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>44927</v>
       </c>
@@ -4667,7 +4672,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="20" t="s">
         <v>52</v>
@@ -4689,7 +4694,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>44958</v>
       </c>
@@ -4709,7 +4714,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="49"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>44986</v>
       </c>
@@ -4729,7 +4734,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>45017</v>
       </c>
@@ -4749,7 +4754,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>45047</v>
       </c>
@@ -4775,7 +4780,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>45078</v>
       </c>
@@ -4801,22 +4806,24 @@
         <v>86</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>45108</v>
       </c>
       <c r="B86" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C86" s="13"/>
+      <c r="C86" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D86" s="39">
         <v>3</v>
       </c>
       <c r="E86" s="9"/>
       <c r="F86" s="20"/>
-      <c r="G86" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G86" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H86" s="39"/>
       <c r="I86" s="9"/>
@@ -4825,43 +4832,53 @@
         <v>88</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>45139</v>
       </c>
       <c r="B87" s="20"/>
-      <c r="C87" s="13"/>
+      <c r="C87" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D87" s="39"/>
       <c r="E87" s="9"/>
       <c r="F87" s="20"/>
-      <c r="G87" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G87" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H87" s="39"/>
       <c r="I87" s="9"/>
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>45170</v>
       </c>
-      <c r="B88" s="20"/>
-      <c r="C88" s="13"/>
+      <c r="B88" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C88" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D88" s="39"/>
       <c r="E88" s="9"/>
       <c r="F88" s="20"/>
-      <c r="G88" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H88" s="39"/>
+      <c r="G88" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H88" s="39">
+        <v>1</v>
+      </c>
       <c r="I88" s="9"/>
       <c r="J88" s="11"/>
-      <c r="K88" s="20"/>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K88" s="49">
+        <v>45187</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>45200</v>
       </c>
@@ -4879,7 +4896,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>45231</v>
       </c>
@@ -4897,7 +4914,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>45261</v>
       </c>
@@ -4915,7 +4932,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <v>45292</v>
       </c>
@@ -4933,7 +4950,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>45323</v>
       </c>
@@ -4951,7 +4968,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <v>45352</v>
       </c>
@@ -4969,7 +4986,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <v>45383</v>
       </c>
@@ -4987,7 +5004,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>45413</v>
       </c>
@@ -5005,7 +5022,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <v>45444</v>
       </c>
@@ -5023,7 +5040,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <v>45474</v>
       </c>
@@ -5041,7 +5058,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <v>45505</v>
       </c>
@@ -5059,7 +5076,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <v>45536</v>
       </c>
@@ -5077,7 +5094,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <v>45566</v>
       </c>
@@ -5095,7 +5112,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <v>45597</v>
       </c>
@@ -5113,7 +5130,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <v>45627</v>
       </c>
@@ -5131,7 +5148,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <v>45658</v>
       </c>
@@ -5149,7 +5166,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <v>45689</v>
       </c>
@@ -5167,7 +5184,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <v>45717</v>
       </c>
@@ -5185,7 +5202,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <v>45748</v>
       </c>
@@ -5203,7 +5220,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <v>45778</v>
       </c>
@@ -5221,7 +5238,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <v>45809</v>
       </c>
@@ -5239,7 +5256,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <v>45839</v>
       </c>
@@ -5257,7 +5274,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <v>45870</v>
       </c>
@@ -5275,7 +5292,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <v>45901</v>
       </c>
@@ -5293,7 +5310,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <v>45931</v>
       </c>
@@ -5311,7 +5328,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <v>45962</v>
       </c>
@@ -5329,7 +5346,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <v>45992</v>
       </c>
@@ -5347,7 +5364,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <v>46023</v>
       </c>
@@ -5365,7 +5382,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <v>46054</v>
       </c>
@@ -5383,7 +5400,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <v>46082</v>
       </c>
@@ -5401,7 +5418,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <v>46113</v>
       </c>
@@ -5419,7 +5436,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <v>46143</v>
       </c>
@@ -5437,7 +5454,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <v>46174</v>
       </c>
@@ -5455,7 +5472,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
         <v>46204</v>
       </c>
@@ -5473,7 +5490,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
         <v>46235</v>
       </c>
@@ -5491,7 +5508,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <v>46266</v>
       </c>
@@ -5509,7 +5526,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <v>46296</v>
       </c>
@@ -5527,7 +5544,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5543,7 +5560,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5559,7 +5576,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5575,7 +5592,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5591,7 +5608,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5607,7 +5624,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5623,7 +5640,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5639,7 +5656,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="41"/>
       <c r="B133" s="15"/>
       <c r="C133" s="42"/>
@@ -5670,10 +5687,10 @@
     <mergeCell ref="J3:K3"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5696,34 +5713,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K79"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A22" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A22" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
+      <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -5746,7 +5763,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -5766,7 +5783,7 @@
       <c r="J3" s="55"/>
       <c r="K3" s="56"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -5788,7 +5805,7 @@
       <c r="J4" s="52"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -5796,7 +5813,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -5809,7 +5826,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="57" t="s">
@@ -5826,7 +5843,7 @@
       <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -5861,7 +5878,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -5880,12 +5897,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>3.25</v>
+        <v>0.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>45</v>
       </c>
@@ -5907,7 +5924,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43132</v>
       </c>
@@ -5931,7 +5948,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43160</v>
       </c>
@@ -5955,7 +5972,7 @@
         <v>43175</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43313</v>
       </c>
@@ -5979,7 +5996,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40"/>
       <c r="B14" s="20" t="s">
         <v>51</v>
@@ -5999,7 +6016,7 @@
         <v>43340</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43435</v>
       </c>
@@ -6023,7 +6040,7 @@
         <v>43454</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="48" t="s">
         <v>56</v>
       </c>
@@ -6041,7 +6058,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>43678</v>
       </c>
@@ -6063,7 +6080,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>43739</v>
       </c>
@@ -6087,7 +6104,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="48" t="s">
         <v>59</v>
       </c>
@@ -6105,7 +6122,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>43831</v>
       </c>
@@ -6127,7 +6144,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>43862</v>
       </c>
@@ -6147,7 +6164,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>44044</v>
       </c>
@@ -6169,7 +6186,7 @@
         <v>44071</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="48" t="s">
         <v>66</v>
       </c>
@@ -6187,7 +6204,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>44835</v>
       </c>
@@ -6211,7 +6228,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>44896</v>
       </c>
@@ -6235,7 +6252,7 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="48" t="s">
         <v>76</v>
       </c>
@@ -6253,7 +6270,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>44927</v>
       </c>
@@ -6277,7 +6294,7 @@
         <v>44588</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>44958</v>
       </c>
@@ -6301,7 +6318,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40"/>
       <c r="B29" s="20" t="s">
         <v>80</v>
@@ -6323,7 +6340,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>44986</v>
       </c>
@@ -6347,7 +6364,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40"/>
       <c r="B31" s="20" t="s">
         <v>80</v>
@@ -6369,7 +6386,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>45107</v>
       </c>
@@ -6389,9 +6406,13 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="40"/>
-      <c r="B33" s="20"/>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="40">
+        <v>45139</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>89</v>
+      </c>
       <c r="C33" s="13"/>
       <c r="D33" s="39"/>
       <c r="E33" s="9"/>
@@ -6400,13 +6421,19 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H33" s="39"/>
+      <c r="H33" s="39">
+        <v>3</v>
+      </c>
       <c r="I33" s="9"/>
       <c r="J33" s="11"/>
-      <c r="K33" s="20"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="40"/>
+      <c r="K33" s="20" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="40">
+        <v>45170</v>
+      </c>
       <c r="B34" s="20"/>
       <c r="C34" s="13"/>
       <c r="D34" s="39"/>
@@ -6421,7 +6448,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
       <c r="B35" s="20"/>
       <c r="C35" s="13"/>
@@ -6437,7 +6464,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40"/>
       <c r="B36" s="20"/>
       <c r="C36" s="13"/>
@@ -6453,7 +6480,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40"/>
       <c r="B37" s="20"/>
       <c r="C37" s="13"/>
@@ -6469,7 +6496,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40"/>
       <c r="B38" s="20"/>
       <c r="C38" s="13"/>
@@ -6485,7 +6512,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
       <c r="B39" s="20"/>
       <c r="C39" s="13"/>
@@ -6501,7 +6528,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40"/>
       <c r="B40" s="20"/>
       <c r="C40" s="13"/>
@@ -6517,7 +6544,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40"/>
       <c r="B41" s="20"/>
       <c r="C41" s="13"/>
@@ -6533,7 +6560,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40"/>
       <c r="B42" s="20"/>
       <c r="C42" s="13"/>
@@ -6549,7 +6576,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40"/>
       <c r="B43" s="20"/>
       <c r="C43" s="13"/>
@@ -6565,7 +6592,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40"/>
       <c r="B44" s="20"/>
       <c r="C44" s="13"/>
@@ -6581,7 +6608,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40"/>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
@@ -6597,7 +6624,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
@@ -6613,7 +6640,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40"/>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
@@ -6629,7 +6656,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40"/>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -6645,7 +6672,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40"/>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -6661,7 +6688,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40"/>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -6677,7 +6704,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40"/>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -6693,7 +6720,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40"/>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -6709,7 +6736,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40"/>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -6725,7 +6752,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40"/>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -6741,7 +6768,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40"/>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -6757,7 +6784,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -6773,7 +6800,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -6789,7 +6816,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40"/>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -6805,7 +6832,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40"/>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -6821,7 +6848,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -6837,7 +6864,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -6853,7 +6880,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -6869,7 +6896,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -6885,7 +6912,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -6901,7 +6928,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -6917,7 +6944,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -6933,7 +6960,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -6949,7 +6976,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -6965,7 +6992,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -6981,7 +7008,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -6997,7 +7024,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -7013,7 +7040,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -7029,7 +7056,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -7045,7 +7072,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -7061,7 +7088,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -7077,7 +7104,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40"/>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -7093,7 +7120,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -7109,7 +7136,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40"/>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -7125,7 +7152,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="41"/>
       <c r="B79" s="15"/>
       <c r="C79" s="42"/>
@@ -7156,10 +7183,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7182,28 +7209,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -7216,7 +7243,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -7245,7 +7272,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>17.341000000000001</v>
       </c>
@@ -7269,17 +7296,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -7300,7 +7327,7 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -7327,7 +7354,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -7353,7 +7380,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -7379,7 +7406,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -7405,7 +7432,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -7431,7 +7458,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -7457,7 +7484,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -7483,7 +7510,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -7509,7 +7536,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -7529,7 +7556,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -7549,7 +7576,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -7569,7 +7596,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -7590,7 +7617,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -7611,7 +7638,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -7632,7 +7659,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -7653,7 +7680,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -7674,7 +7701,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -7695,7 +7722,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -7716,7 +7743,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -7737,7 +7764,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -7758,7 +7785,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -7779,7 +7806,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -7800,7 +7827,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -7821,7 +7848,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -7842,7 +7869,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -7863,7 +7890,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -7884,7 +7911,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -7905,7 +7932,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -7926,7 +7953,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -7947,7 +7974,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -7968,7 +7995,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -7989,7 +8016,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -7998,7 +8025,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -8007,7 +8034,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -8016,7 +8043,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -8025,7 +8052,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -8034,7 +8061,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -8043,7 +8070,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -8052,7 +8079,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -8061,7 +8088,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -8070,7 +8097,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -8079,7 +8106,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -8088,7 +8115,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -8097,7 +8124,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -8106,7 +8133,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -8115,7 +8142,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -8124,7 +8151,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -8133,7 +8160,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -8142,7 +8169,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -8151,7 +8178,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -8160,7 +8187,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -8169,7 +8196,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -8178,7 +8205,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -8187,7 +8214,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -8196,7 +8223,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -8205,7 +8232,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -8214,7 +8241,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -8223,7 +8250,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -8232,7 +8259,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -8241,7 +8268,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -8250,7 +8277,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
